--- a/Code/Results/Cases/Case_4_107/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_107/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9938426015159223</v>
+        <v>0.5740890222845394</v>
       </c>
       <c r="C2">
-        <v>0.1141544947731035</v>
+        <v>0.08334798420494138</v>
       </c>
       <c r="D2">
-        <v>0.1940971409803609</v>
+        <v>0.07788318623309465</v>
       </c>
       <c r="E2">
-        <v>0.04226525703065853</v>
+        <v>0.09703041564883463</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008184291361275535</v>
+        <v>0.002487646065792427</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5026586988744342</v>
+        <v>1.072124363920366</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9250713070975678</v>
+        <v>0.3675506683272545</v>
       </c>
       <c r="L2">
-        <v>0.1625436212402391</v>
+        <v>0.2133802542635763</v>
       </c>
       <c r="M2">
-        <v>0.2171007752121525</v>
+        <v>0.1704861284201158</v>
       </c>
       <c r="N2">
-        <v>1.017092512213118</v>
+        <v>2.148421192277677</v>
       </c>
       <c r="O2">
-        <v>2.255291949243428</v>
+        <v>4.36997678949777</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8651441197785914</v>
+        <v>0.5395462078686819</v>
       </c>
       <c r="C3">
-        <v>0.1049100108028682</v>
+        <v>0.08018473635740975</v>
       </c>
       <c r="D3">
-        <v>0.1684478094675654</v>
+        <v>0.07074552709806881</v>
       </c>
       <c r="E3">
-        <v>0.04160302759677492</v>
+        <v>0.09733827636318182</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000822315118045314</v>
+        <v>0.002490244900138592</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5002844003600799</v>
+        <v>1.077706900468055</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8030982277409748</v>
+        <v>0.3328202733493129</v>
       </c>
       <c r="L3">
-        <v>0.1480326021008409</v>
+        <v>0.2107133660942466</v>
       </c>
       <c r="M3">
-        <v>0.1906596648462227</v>
+        <v>0.1639236050522044</v>
       </c>
       <c r="N3">
-        <v>1.062544779713969</v>
+        <v>2.168097402430543</v>
       </c>
       <c r="O3">
-        <v>2.202011277973156</v>
+        <v>4.382999381738301</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7865017154410054</v>
+        <v>0.5185541243449734</v>
       </c>
       <c r="C4">
-        <v>0.09922341477700058</v>
+        <v>0.07821565713710754</v>
       </c>
       <c r="D4">
-        <v>0.1528365159505398</v>
+        <v>0.0663968214586248</v>
       </c>
       <c r="E4">
-        <v>0.04124373176374441</v>
+        <v>0.09755980138731424</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008247833594176024</v>
+        <v>0.002491927156954749</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.499630649078842</v>
+        <v>1.08158303967398</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7284408983559558</v>
+        <v>0.3115792897879146</v>
       </c>
       <c r="L4">
-        <v>0.1392962735530574</v>
+        <v>0.2091780058893562</v>
       </c>
       <c r="M4">
-        <v>0.1745561988468936</v>
+        <v>0.1599710842788085</v>
       </c>
       <c r="N4">
-        <v>1.0916496457137</v>
+        <v>2.180802470696875</v>
       </c>
       <c r="O4">
-        <v>2.173060651356366</v>
+        <v>4.393012793212876</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7545363129027862</v>
+        <v>0.5100548777876384</v>
       </c>
       <c r="C5">
-        <v>0.09690238163747722</v>
+        <v>0.07740649651175602</v>
       </c>
       <c r="D5">
-        <v>0.1465052816900538</v>
+        <v>0.06463321566150171</v>
       </c>
       <c r="E5">
-        <v>0.04110888929470313</v>
+        <v>0.09765826320551518</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000825810198760513</v>
+        <v>0.002492634521126237</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4995590276265354</v>
+        <v>1.08327543820841</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6980638266807659</v>
+        <v>0.3029448600433113</v>
       </c>
       <c r="L5">
-        <v>0.1357771423628265</v>
+        <v>0.2085780794698948</v>
       </c>
       <c r="M5">
-        <v>0.1680237554281163</v>
+        <v>0.1583798479693037</v>
       </c>
       <c r="N5">
-        <v>1.103804656867936</v>
+        <v>2.186136775152917</v>
       </c>
       <c r="O5">
-        <v>2.162168709176683</v>
+        <v>4.397600959373364</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7492330606959001</v>
+        <v>0.5086469342367934</v>
       </c>
       <c r="C6">
-        <v>0.09651672228425667</v>
+        <v>0.07727172870557553</v>
       </c>
       <c r="D6">
-        <v>0.1454557112028567</v>
+        <v>0.06434088575400665</v>
       </c>
       <c r="E6">
-        <v>0.04108718859542115</v>
+        <v>0.09767510778094213</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008259819831699846</v>
+        <v>0.002492753298651843</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4995586897700619</v>
+        <v>1.083563277239517</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6930221836188224</v>
+        <v>0.3015124269738152</v>
       </c>
       <c r="L6">
-        <v>0.1351951946174026</v>
+        <v>0.208480019055358</v>
       </c>
       <c r="M6">
-        <v>0.166940760202241</v>
+        <v>0.1581168023036774</v>
       </c>
       <c r="N6">
-        <v>1.10584059412969</v>
+        <v>2.187032008718219</v>
       </c>
       <c r="O6">
-        <v>2.160413655500918</v>
+        <v>4.398393488910301</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7860703038176666</v>
+        <v>0.5184392763164851</v>
       </c>
       <c r="C7">
-        <v>0.09919212886234874</v>
+        <v>0.07820477182079344</v>
       </c>
       <c r="D7">
-        <v>0.1527510124945906</v>
+        <v>0.06637300230640619</v>
       </c>
       <c r="E7">
-        <v>0.04124186678878772</v>
+        <v>0.09756109610008501</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008247971221205235</v>
+        <v>0.002491936608074201</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4996289040070039</v>
+        <v>1.081605406965291</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7280310508628816</v>
+        <v>0.3114627554723626</v>
       </c>
       <c r="L7">
-        <v>0.1392486507266568</v>
+        <v>0.2091698107414999</v>
       </c>
       <c r="M7">
-        <v>0.1744679832984843</v>
+        <v>0.1599495454164774</v>
       </c>
       <c r="N7">
-        <v>1.091812388143993</v>
+        <v>2.180873775731561</v>
       </c>
       <c r="O7">
-        <v>2.172910144247396</v>
+        <v>4.393072615091484</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9493804586560941</v>
+        <v>0.5621338653826342</v>
       </c>
       <c r="C8">
-        <v>0.1109684969134292</v>
+        <v>0.08226286599066412</v>
       </c>
       <c r="D8">
-        <v>0.1852221904525777</v>
+        <v>0.07541510423824604</v>
       </c>
       <c r="E8">
-        <v>0.04202690003932119</v>
+        <v>0.09712983123481855</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008197521601717429</v>
+        <v>0.002488524216790105</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5016685861114851</v>
+        <v>1.073956194134119</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8829584609252663</v>
+        <v>0.3555585120729461</v>
       </c>
       <c r="L8">
-        <v>0.1575025844612696</v>
+        <v>0.2124395547749245</v>
       </c>
       <c r="M8">
-        <v>0.2079545992437097</v>
+        <v>0.1682074756528245</v>
       </c>
       <c r="N8">
-        <v>1.03251204723915</v>
+        <v>2.155076099082674</v>
       </c>
       <c r="O8">
-        <v>2.236114380086775</v>
+        <v>4.374048426372326</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.273287546787003</v>
+        <v>0.6495240821919595</v>
       </c>
       <c r="C9">
-        <v>0.1340316762648541</v>
+        <v>0.09000809621190342</v>
       </c>
       <c r="D9">
-        <v>0.2501855983656327</v>
+        <v>0.09341541480566207</v>
       </c>
       <c r="E9">
-        <v>0.0439572343364798</v>
+        <v>0.09654127084897013</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008104956286340192</v>
+        <v>0.002482516422741819</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5124010729544821</v>
+        <v>1.062511319506058</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.189248897925324</v>
+        <v>0.4426797225507642</v>
       </c>
       <c r="L9">
-        <v>0.1948019527007006</v>
+        <v>0.2196594288520544</v>
       </c>
       <c r="M9">
-        <v>0.2748212234005081</v>
+        <v>0.1850074251493723</v>
       </c>
       <c r="N9">
-        <v>0.9260249346302452</v>
+        <v>2.109434482708366</v>
       </c>
       <c r="O9">
-        <v>2.391871772793905</v>
+        <v>4.352739799739112</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.514470300196081</v>
+        <v>0.7147502433544162</v>
       </c>
       <c r="C10">
-        <v>0.1510376197907561</v>
+        <v>0.09556963915186145</v>
       </c>
       <c r="D10">
-        <v>0.298991454254022</v>
+        <v>0.1068057829515539</v>
       </c>
       <c r="E10">
-        <v>0.04563648840735723</v>
+        <v>0.09626473146749071</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000804059631893812</v>
+        <v>0.002478515308915661</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5249102965335908</v>
+        <v>1.056266759606643</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.416721913281037</v>
+        <v>0.5070714470132884</v>
       </c>
       <c r="L10">
-        <v>0.2233110612127263</v>
+        <v>0.2254540520533084</v>
       </c>
       <c r="M10">
-        <v>0.3249138076805238</v>
+        <v>0.1977160034226344</v>
       </c>
       <c r="N10">
-        <v>0.854204521357758</v>
+        <v>2.078913916999056</v>
       </c>
       <c r="O10">
-        <v>2.528581919086832</v>
+        <v>4.346828379781044</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.625121064108328</v>
+        <v>0.7446412991522777</v>
       </c>
       <c r="C11">
-        <v>0.1588067453082829</v>
+        <v>0.09807193649201906</v>
       </c>
       <c r="D11">
-        <v>0.3214976739442079</v>
+        <v>0.1129337856090586</v>
       </c>
       <c r="E11">
-        <v>0.04646244832459345</v>
+        <v>0.09617258955877261</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008012054879089544</v>
+        <v>0.002476783863577785</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5317284232541155</v>
+        <v>1.053895184170678</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.520958092076086</v>
+        <v>0.5364460291377782</v>
       </c>
       <c r="L11">
-        <v>0.2365653229289677</v>
+        <v>0.2281961674781314</v>
       </c>
       <c r="M11">
-        <v>0.3479677467121789</v>
+        <v>0.2035761248171326</v>
       </c>
       <c r="N11">
-        <v>0.823029352814693</v>
+        <v>2.065682605578008</v>
       </c>
       <c r="O11">
-        <v>2.596296496220873</v>
+        <v>4.346253507458016</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.667176615635839</v>
+        <v>0.7559913445117559</v>
       </c>
       <c r="C12">
-        <v>0.1617551862199491</v>
+        <v>0.09901551545331699</v>
       </c>
       <c r="D12">
-        <v>0.330070021651153</v>
+        <v>0.1152595736292028</v>
       </c>
       <c r="E12">
-        <v>0.04678461128965239</v>
+        <v>0.09614252170896265</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008001348123491758</v>
+        <v>0.002476140896626686</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5344834435228805</v>
+        <v>1.053064527784301</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.560558088064823</v>
+        <v>0.5475809393180668</v>
       </c>
       <c r="L12">
-        <v>0.2416293309401425</v>
+        <v>0.2292497387296493</v>
       </c>
       <c r="M12">
-        <v>0.3567408999354029</v>
+        <v>0.2058064553121213</v>
       </c>
       <c r="N12">
-        <v>0.8114488562879281</v>
+        <v>2.060766081314139</v>
       </c>
       <c r="O12">
-        <v>2.622793831188176</v>
+        <v>4.346339650085383</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.65811199475263</v>
+        <v>0.7535455420107553</v>
       </c>
       <c r="C13">
-        <v>0.1611198717912572</v>
+        <v>0.09881247626449863</v>
       </c>
       <c r="D13">
-        <v>0.3282215017046042</v>
+        <v>0.114758440633949</v>
       </c>
       <c r="E13">
-        <v>0.0467148023901327</v>
+        <v>0.09614878304452823</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008003649587484031</v>
+        <v>0.002476278807668734</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5338822168172968</v>
+        <v>1.053240427299386</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.552023507940987</v>
+        <v>0.5451823378639062</v>
       </c>
       <c r="L13">
-        <v>0.2405366444198478</v>
+        <v>0.2290221587283838</v>
       </c>
       <c r="M13">
-        <v>0.3548494463845913</v>
+        <v>0.2053256161975483</v>
       </c>
       <c r="N13">
-        <v>0.8139327609768081</v>
+        <v>2.061820766558917</v>
       </c>
       <c r="O13">
-        <v>2.617048101142927</v>
+        <v>4.346307587698703</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.62857778348598</v>
+        <v>0.7455744572914114</v>
       </c>
       <c r="C14">
-        <v>0.1590491760310329</v>
+        <v>0.09814964524122161</v>
       </c>
       <c r="D14">
-        <v>0.3222018937251363</v>
+        <v>0.1131250245887827</v>
       </c>
       <c r="E14">
-        <v>0.04648876190846174</v>
+        <v>0.09617001926186219</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008011172025796763</v>
+        <v>0.002476730712363576</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5319515446982948</v>
+        <v>1.053825494898092</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.524213327636488</v>
+        <v>0.5373618792230843</v>
       </c>
       <c r="L14">
-        <v>0.2369810187745713</v>
+        <v>0.2282825413411302</v>
       </c>
       <c r="M14">
-        <v>0.348688626319209</v>
+        <v>0.2037593910753515</v>
       </c>
       <c r="N14">
-        <v>0.8220720538690216</v>
+        <v>2.065276238330192</v>
       </c>
       <c r="O14">
-        <v>2.59845894252922</v>
+        <v>4.346254506281099</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.610507965376087</v>
+        <v>0.7406959509667388</v>
       </c>
       <c r="C15">
-        <v>0.1577817065522851</v>
+        <v>0.09774312270384655</v>
       </c>
       <c r="D15">
-        <v>0.3185213710626726</v>
+        <v>0.1121251925829654</v>
       </c>
       <c r="E15">
-        <v>0.04635154273712061</v>
+        <v>0.09618365486144143</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008015792783260111</v>
+        <v>0.002477009168369556</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5307918398904974</v>
+        <v>1.054192642724153</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.507196050959266</v>
+        <v>0.5325730924501215</v>
       </c>
       <c r="L15">
-        <v>0.2348090631190871</v>
+        <v>0.22783148074096</v>
       </c>
       <c r="M15">
-        <v>0.3449207105524223</v>
+        <v>0.2028014918484899</v>
       </c>
       <c r="N15">
-        <v>0.8270871888344686</v>
+        <v>2.067405042447419</v>
       </c>
       <c r="O15">
-        <v>2.587185810634082</v>
+        <v>4.346261554827834</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.507259513497786</v>
+        <v>0.712801155916793</v>
       </c>
       <c r="C16">
-        <v>0.1505306953731349</v>
+        <v>0.09540555062770295</v>
       </c>
       <c r="D16">
-        <v>0.2975272437909382</v>
+        <v>0.1064060390960577</v>
       </c>
       <c r="E16">
-        <v>0.04558379795183498</v>
+        <v>0.09627142909530484</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008042475997199205</v>
+        <v>0.00247863024236908</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5244883292269122</v>
+        <v>1.056431183045184</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.409926677605625</v>
+        <v>0.5051533686607286</v>
       </c>
       <c r="L16">
-        <v>0.2224509310787539</v>
+        <v>0.2252769778737473</v>
       </c>
       <c r="M16">
-        <v>0.3234129449015199</v>
+        <v>0.1973346086625369</v>
       </c>
       <c r="N16">
-        <v>0.856272815221633</v>
+        <v>2.079791750289324</v>
       </c>
       <c r="O16">
-        <v>2.52427288685729</v>
+        <v>4.346908476796671</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.444173316777778</v>
+        <v>0.6957443627843531</v>
       </c>
       <c r="C17">
-        <v>0.1460920566320709</v>
+        <v>0.09396443240514429</v>
       </c>
       <c r="D17">
-        <v>0.284730073485278</v>
+        <v>0.1029068950215475</v>
       </c>
       <c r="E17">
-        <v>0.04512902884148318</v>
+        <v>0.09633388507682916</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008059030663634685</v>
+        <v>0.002479647390380812</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5209177283929165</v>
+        <v>1.057924569289241</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.350462242627401</v>
+        <v>0.4883530467616026</v>
       </c>
       <c r="L17">
-        <v>0.2149453740864402</v>
+        <v>0.22373700326537</v>
       </c>
       <c r="M17">
-        <v>0.3102902099343723</v>
+        <v>0.1940009824930442</v>
       </c>
       <c r="N17">
-        <v>0.8745671832230286</v>
+        <v>2.087557777903179</v>
       </c>
       <c r="O17">
-        <v>2.487134793024467</v>
+        <v>4.347846717461607</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.407974582254099</v>
+        <v>0.6859544279172667</v>
       </c>
       <c r="C18">
-        <v>0.1435420694152327</v>
+        <v>0.09313293470276562</v>
       </c>
       <c r="D18">
-        <v>0.2773977299166717</v>
+        <v>0.1008977317701607</v>
       </c>
       <c r="E18">
-        <v>0.0448732694285745</v>
+        <v>0.09637297701435976</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008068622059458397</v>
+        <v>0.002480240777671303</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5189694487641816</v>
+        <v>1.058827682960704</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.31632995562498</v>
+        <v>0.4786977356631326</v>
       </c>
       <c r="L18">
-        <v>0.2106549853237283</v>
+        <v>0.2228612424164282</v>
       </c>
       <c r="M18">
-        <v>0.3027671445518791</v>
+        <v>0.1920910048881268</v>
       </c>
       <c r="N18">
-        <v>0.8852298398164393</v>
+        <v>2.092086019447219</v>
       </c>
       <c r="O18">
-        <v>2.466290042536968</v>
+        <v>4.348585384578513</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.395732630877376</v>
+        <v>0.6826432942285408</v>
       </c>
       <c r="C19">
-        <v>0.1426791535764238</v>
+        <v>0.09285095673101296</v>
       </c>
       <c r="D19">
-        <v>0.2749198003883748</v>
+        <v>0.100218057219692</v>
       </c>
       <c r="E19">
-        <v>0.04478765811946062</v>
+        <v>0.09638675761099336</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008071881628899038</v>
+        <v>0.002480443124370836</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5183275805354128</v>
+        <v>1.059141047314235</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.304784827551458</v>
+        <v>0.4754299652634018</v>
       </c>
       <c r="L19">
-        <v>0.2092067895870429</v>
+        <v>0.2225664429879686</v>
       </c>
       <c r="M19">
-        <v>0.3002240799730416</v>
+        <v>0.1914456000722922</v>
       </c>
       <c r="N19">
-        <v>0.8888638302455547</v>
+        <v>2.093629753464182</v>
       </c>
       <c r="O19">
-        <v>2.459319221746313</v>
+        <v>4.348869671679665</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.450879828756086</v>
+        <v>0.6975579513613184</v>
       </c>
       <c r="C20">
-        <v>0.146564234962355</v>
+        <v>0.09411811151916538</v>
       </c>
       <c r="D20">
-        <v>0.2860893882016882</v>
+        <v>0.1032790278035094</v>
       </c>
       <c r="E20">
-        <v>0.04517683501024372</v>
+        <v>0.09632690867389293</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008057261222018955</v>
+        <v>0.002479538249346918</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5212868355155393</v>
+        <v>1.057761026004606</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.35678494607339</v>
+        <v>0.4901406668672337</v>
       </c>
       <c r="L20">
-        <v>0.2157415722353591</v>
+        <v>0.223899902562124</v>
       </c>
       <c r="M20">
-        <v>0.3116845486819031</v>
+        <v>0.1943550839584987</v>
       </c>
       <c r="N20">
-        <v>0.872605136139093</v>
+        <v>2.086724713194801</v>
       </c>
       <c r="O20">
-        <v>2.491034364636278</v>
+        <v>4.347726244144667</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.637248337548073</v>
+        <v>0.7479149227976052</v>
       </c>
       <c r="C21">
-        <v>0.1596572005721839</v>
+        <v>0.09834444303484702</v>
       </c>
       <c r="D21">
-        <v>0.3239685990886301</v>
+        <v>0.1136046562918409</v>
       </c>
       <c r="E21">
-        <v>0.04655489678436098</v>
+        <v>0.09616365086422718</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008008959792811073</v>
+        <v>0.002476597632940904</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5325138394461675</v>
+        <v>1.0536518173244</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.53237821834017</v>
+        <v>0.539658631989937</v>
       </c>
       <c r="L21">
-        <v>0.2380241412571706</v>
+        <v>0.2284993731351079</v>
       </c>
       <c r="M21">
-        <v>0.3504969981791461</v>
+        <v>0.2042191255432684</v>
       </c>
       <c r="N21">
-        <v>0.8196751629125529</v>
+        <v>2.0642587341606</v>
       </c>
       <c r="O21">
-        <v>2.603895310061091</v>
+        <v>4.346261853146956</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.759961851088462</v>
+        <v>0.7810062477439317</v>
       </c>
       <c r="C22">
-        <v>0.1682526451896109</v>
+        <v>0.1010833539771596</v>
       </c>
       <c r="D22">
-        <v>0.3490177979668232</v>
+        <v>0.1203836193805614</v>
       </c>
       <c r="E22">
-        <v>0.04751050819977465</v>
+        <v>0.0960850649020113</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007977979941143865</v>
+        <v>0.002474749732478539</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5408662075702892</v>
+        <v>1.051359093396364</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.647894636659714</v>
+        <v>0.5720876781716697</v>
       </c>
       <c r="L22">
-        <v>0.2528508303702353</v>
+        <v>0.2315939103310711</v>
       </c>
       <c r="M22">
-        <v>0.3761170256096733</v>
+        <v>0.2107312465907185</v>
       </c>
       <c r="N22">
-        <v>0.786398031546458</v>
+        <v>2.050123177682444</v>
       </c>
       <c r="O22">
-        <v>2.682673169613679</v>
+        <v>4.347075678272944</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.694377008047695</v>
+        <v>0.7633284979619077</v>
       </c>
       <c r="C23">
-        <v>0.1636609820062205</v>
+        <v>0.09962367452413901</v>
       </c>
       <c r="D23">
-        <v>0.3356196787514989</v>
+        <v>0.1167627706492453</v>
       </c>
       <c r="E23">
-        <v>0.0469952893272243</v>
+        <v>0.09612444055671077</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007994462271211655</v>
+        <v>0.002475729243353413</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5363116973114828</v>
+        <v>1.052546830760178</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.586165495006469</v>
+        <v>0.5547737829746495</v>
       </c>
       <c r="L23">
-        <v>0.2449120645023726</v>
+        <v>0.2299342204851058</v>
       </c>
       <c r="M23">
-        <v>0.3624182344350544</v>
+        <v>0.20724966054253</v>
       </c>
       <c r="N23">
-        <v>0.8040348979243213</v>
+        <v>2.057617503195782</v>
       </c>
       <c r="O23">
-        <v>2.640147662307555</v>
+        <v>4.346479351926604</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.447847597027391</v>
+        <v>0.6967379773266202</v>
       </c>
       <c r="C24">
-        <v>0.14635075751751</v>
+        <v>0.09404864247379408</v>
       </c>
       <c r="D24">
-        <v>0.2854747648457874</v>
+        <v>0.1031107786555623</v>
       </c>
       <c r="E24">
-        <v>0.04515520414254226</v>
+        <v>0.0963300527832569</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008058060956259431</v>
+        <v>0.002479587565274555</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.521119637493868</v>
+        <v>1.057834825160491</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.353926283177003</v>
+        <v>0.4893324731372957</v>
       </c>
       <c r="L24">
-        <v>0.2153815345446048</v>
+        <v>0.2238262259104999</v>
       </c>
       <c r="M24">
-        <v>0.3110541019305728</v>
+        <v>0.1941949742170763</v>
       </c>
       <c r="N24">
-        <v>0.8734917267688225</v>
+        <v>2.087101144108317</v>
       </c>
       <c r="O24">
-        <v>2.489269795434069</v>
+        <v>4.347780089428113</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.18517335105517</v>
+        <v>0.6257021166316008</v>
       </c>
       <c r="C25">
-        <v>0.1277878227343905</v>
+        <v>0.08793549427373648</v>
       </c>
       <c r="D25">
-        <v>0.2324443145690793</v>
+        <v>0.08851690226815379</v>
       </c>
       <c r="E25">
-        <v>0.0433909085556472</v>
+        <v>0.09667305451038466</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008129339469148282</v>
+        <v>0.002484068900982675</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5087251832523947</v>
+        <v>1.065227201206717</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.106031497941814</v>
+        <v>0.4190428473237375</v>
       </c>
       <c r="L25">
-        <v>0.1845317344401636</v>
+        <v>0.2176200106850814</v>
       </c>
       <c r="M25">
-        <v>0.2565803009523862</v>
+        <v>0.1803980997251386</v>
       </c>
       <c r="N25">
-        <v>0.9537395184503907</v>
+        <v>2.121252486917511</v>
       </c>
       <c r="O25">
-        <v>2.34604301378161</v>
+        <v>4.356792576194209</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_107/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_107/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5740890222845394</v>
+        <v>0.9938426015159791</v>
       </c>
       <c r="C2">
-        <v>0.08334798420494138</v>
+        <v>0.1141544947732029</v>
       </c>
       <c r="D2">
-        <v>0.07788318623309465</v>
+        <v>0.1940971409802188</v>
       </c>
       <c r="E2">
-        <v>0.09703041564883463</v>
+        <v>0.04226525703064787</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002487646065792427</v>
+        <v>0.0008184291361279448</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.072124363920366</v>
+        <v>0.5026586988744342</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3675506683272545</v>
+        <v>0.9250713070975678</v>
       </c>
       <c r="L2">
-        <v>0.2133802542635763</v>
+        <v>0.1625436212403031</v>
       </c>
       <c r="M2">
-        <v>0.1704861284201158</v>
+        <v>0.2171007752121596</v>
       </c>
       <c r="N2">
-        <v>2.148421192277677</v>
+        <v>1.017092512213171</v>
       </c>
       <c r="O2">
-        <v>4.36997678949777</v>
+        <v>2.255291949243428</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5395462078686819</v>
+        <v>0.8651441197787051</v>
       </c>
       <c r="C3">
-        <v>0.08018473635740975</v>
+        <v>0.1049100108031098</v>
       </c>
       <c r="D3">
-        <v>0.07074552709806881</v>
+        <v>0.1684478094675512</v>
       </c>
       <c r="E3">
-        <v>0.09733827636318182</v>
+        <v>0.04160302759676959</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002490244900138592</v>
+        <v>0.0008223151179838721</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.077706900468055</v>
+        <v>0.5002844003600799</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3328202733493129</v>
+        <v>0.8030982277408896</v>
       </c>
       <c r="L3">
-        <v>0.2107133660942466</v>
+        <v>0.1480326021008054</v>
       </c>
       <c r="M3">
-        <v>0.1639236050522044</v>
+        <v>0.1906596648462084</v>
       </c>
       <c r="N3">
-        <v>2.168097402430543</v>
+        <v>1.062544779713953</v>
       </c>
       <c r="O3">
-        <v>4.382999381738301</v>
+        <v>2.202011277973156</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5185541243449734</v>
+        <v>0.7865017154407781</v>
       </c>
       <c r="C4">
-        <v>0.07821565713710754</v>
+        <v>0.09922341477731322</v>
       </c>
       <c r="D4">
-        <v>0.0663968214586248</v>
+        <v>0.1528365159504119</v>
       </c>
       <c r="E4">
-        <v>0.09755980138731424</v>
+        <v>0.04124373176373908</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002491927156954749</v>
+        <v>0.000824783359415686</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.08158303967398</v>
+        <v>0.4996306490788349</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3115792897879146</v>
+        <v>0.7284408983559842</v>
       </c>
       <c r="L4">
-        <v>0.2091780058893562</v>
+        <v>0.1392962735530503</v>
       </c>
       <c r="M4">
-        <v>0.1599710842788085</v>
+        <v>0.1745561988468829</v>
       </c>
       <c r="N4">
-        <v>2.180802470696875</v>
+        <v>1.091649645713748</v>
       </c>
       <c r="O4">
-        <v>4.393012793212876</v>
+        <v>2.173060651356423</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5100548777876384</v>
+        <v>0.7545363129026725</v>
       </c>
       <c r="C5">
-        <v>0.07740649651175602</v>
+        <v>0.09690238163723564</v>
       </c>
       <c r="D5">
-        <v>0.06463321566150171</v>
+        <v>0.1465052816901675</v>
       </c>
       <c r="E5">
-        <v>0.09765826320551518</v>
+        <v>0.04110888929467293</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002492634521126237</v>
+        <v>0.0008258101986782559</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.08327543820841</v>
+        <v>0.4995590276265283</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3029448600433113</v>
+        <v>0.6980638266807091</v>
       </c>
       <c r="L5">
-        <v>0.2085780794698948</v>
+        <v>0.1357771423628051</v>
       </c>
       <c r="M5">
-        <v>0.1583798479693037</v>
+        <v>0.1680237554281305</v>
       </c>
       <c r="N5">
-        <v>2.186136775152917</v>
+        <v>1.103804656867984</v>
       </c>
       <c r="O5">
-        <v>4.397600959373364</v>
+        <v>2.162168709176626</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5086469342367934</v>
+        <v>0.7492330606959001</v>
       </c>
       <c r="C6">
-        <v>0.07727172870557553</v>
+        <v>0.09651672228463326</v>
       </c>
       <c r="D6">
-        <v>0.06434088575400665</v>
+        <v>0.1454557112028425</v>
       </c>
       <c r="E6">
-        <v>0.09767510778094213</v>
+        <v>0.04108718859540161</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002492753298651843</v>
+        <v>0.0008259819831919059</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.083563277239517</v>
+        <v>0.4995586897700655</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3015124269738152</v>
+        <v>0.6930221836188508</v>
       </c>
       <c r="L6">
-        <v>0.208480019055358</v>
+        <v>0.1351951946173813</v>
       </c>
       <c r="M6">
-        <v>0.1581168023036774</v>
+        <v>0.1669407602022339</v>
       </c>
       <c r="N6">
-        <v>2.187032008718219</v>
+        <v>1.105840594129644</v>
       </c>
       <c r="O6">
-        <v>4.398393488910301</v>
+        <v>2.160413655500918</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5184392763164851</v>
+        <v>0.7860703038177519</v>
       </c>
       <c r="C7">
-        <v>0.07820477182079344</v>
+        <v>0.09919212886234874</v>
       </c>
       <c r="D7">
-        <v>0.06637300230640619</v>
+        <v>0.1527510124945906</v>
       </c>
       <c r="E7">
-        <v>0.09756109610008501</v>
+        <v>0.04124186678878772</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002491936608074201</v>
+        <v>0.000824797122156256</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.081605406965291</v>
+        <v>0.4996289040070323</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3114627554723626</v>
+        <v>0.7280310508629668</v>
       </c>
       <c r="L7">
-        <v>0.2091698107414999</v>
+        <v>0.1392486507265644</v>
       </c>
       <c r="M7">
-        <v>0.1599495454164774</v>
+        <v>0.1744679832984843</v>
       </c>
       <c r="N7">
-        <v>2.180873775731561</v>
+        <v>1.09181238814398</v>
       </c>
       <c r="O7">
-        <v>4.393072615091484</v>
+        <v>2.172910144247396</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5621338653826342</v>
+        <v>0.9493804586562078</v>
       </c>
       <c r="C8">
-        <v>0.08226286599066412</v>
+        <v>0.1109684969136708</v>
       </c>
       <c r="D8">
-        <v>0.07541510423824604</v>
+        <v>0.1852221904526061</v>
       </c>
       <c r="E8">
-        <v>0.09712983123481855</v>
+        <v>0.0420269000393052</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002488524216790105</v>
+        <v>0.0008197521601655703</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.073956194134119</v>
+        <v>0.50166858611151</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3555585120729461</v>
+        <v>0.8829584609253232</v>
       </c>
       <c r="L8">
-        <v>0.2124395547749245</v>
+        <v>0.1575025844612057</v>
       </c>
       <c r="M8">
-        <v>0.1682074756528245</v>
+        <v>0.2079545992437168</v>
       </c>
       <c r="N8">
-        <v>2.155076099082674</v>
+        <v>1.032512047239099</v>
       </c>
       <c r="O8">
-        <v>4.374048426372326</v>
+        <v>2.236114380086889</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6495240821919595</v>
+        <v>1.273287546787031</v>
       </c>
       <c r="C9">
-        <v>0.09000809621190342</v>
+        <v>0.134031676265181</v>
       </c>
       <c r="D9">
-        <v>0.09341541480566207</v>
+        <v>0.2501855983656327</v>
       </c>
       <c r="E9">
-        <v>0.09654127084897013</v>
+        <v>0.04395723433647802</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002482516422741819</v>
+        <v>0.0008104956286076544</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.062511319506058</v>
+        <v>0.5124010729544821</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4426797225507642</v>
+        <v>1.189248897925296</v>
       </c>
       <c r="L9">
-        <v>0.2196594288520544</v>
+        <v>0.1948019527006295</v>
       </c>
       <c r="M9">
-        <v>0.1850074251493723</v>
+        <v>0.274821223400501</v>
       </c>
       <c r="N9">
-        <v>2.109434482708366</v>
+        <v>0.9260249346303162</v>
       </c>
       <c r="O9">
-        <v>4.352739799739112</v>
+        <v>2.391871772793934</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7147502433544162</v>
+        <v>1.514470300196052</v>
       </c>
       <c r="C10">
-        <v>0.09556963915186145</v>
+        <v>0.1510376197906282</v>
       </c>
       <c r="D10">
-        <v>0.1068057829515539</v>
+        <v>0.298991454254022</v>
       </c>
       <c r="E10">
-        <v>0.09626473146749071</v>
+        <v>0.04563648840737144</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002478515308915661</v>
+        <v>0.0008040596319227888</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.056266759606643</v>
+        <v>0.5249102965335695</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5070714470132884</v>
+        <v>1.416721913281066</v>
       </c>
       <c r="L10">
-        <v>0.2254540520533084</v>
+        <v>0.2233110612128115</v>
       </c>
       <c r="M10">
-        <v>0.1977160034226344</v>
+        <v>0.3249138076805167</v>
       </c>
       <c r="N10">
-        <v>2.078913916999056</v>
+        <v>0.854204521357758</v>
       </c>
       <c r="O10">
-        <v>4.346828379781044</v>
+        <v>2.528581919086776</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7446412991522777</v>
+        <v>1.625121064108299</v>
       </c>
       <c r="C11">
-        <v>0.09807193649201906</v>
+        <v>0.158806745308766</v>
       </c>
       <c r="D11">
-        <v>0.1129337856090586</v>
+        <v>0.32149767394408</v>
       </c>
       <c r="E11">
-        <v>0.09617258955877261</v>
+        <v>0.0464624483245899</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002476783863577785</v>
+        <v>0.0008012054879086068</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.053895184170678</v>
+        <v>0.5317284232540942</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5364460291377782</v>
+        <v>1.520958092076086</v>
       </c>
       <c r="L11">
-        <v>0.2281961674781314</v>
+        <v>0.236565322928783</v>
       </c>
       <c r="M11">
-        <v>0.2035761248171326</v>
+        <v>0.3479677467121718</v>
       </c>
       <c r="N11">
-        <v>2.065682605578008</v>
+        <v>0.8230293528146326</v>
       </c>
       <c r="O11">
-        <v>4.346253507458016</v>
+        <v>2.596296496220845</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7559913445117559</v>
+        <v>1.667176615635753</v>
       </c>
       <c r="C12">
-        <v>0.09901551545331699</v>
+        <v>0.1617551862200628</v>
       </c>
       <c r="D12">
-        <v>0.1152595736292028</v>
+        <v>0.3300700216509682</v>
       </c>
       <c r="E12">
-        <v>0.09614252170896265</v>
+        <v>0.04678461128964884</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002476140896626686</v>
+        <v>0.0008001348123174643</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.053064527784301</v>
+        <v>0.5344834435228805</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5475809393180668</v>
+        <v>1.560558088064795</v>
       </c>
       <c r="L12">
-        <v>0.2292497387296493</v>
+        <v>0.2416293309401851</v>
       </c>
       <c r="M12">
-        <v>0.2058064553121213</v>
+        <v>0.3567408999354171</v>
       </c>
       <c r="N12">
-        <v>2.060766081314139</v>
+        <v>0.8114488562879316</v>
       </c>
       <c r="O12">
-        <v>4.346339650085383</v>
+        <v>2.622793831188176</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7535455420107553</v>
+        <v>1.65811199475246</v>
       </c>
       <c r="C13">
-        <v>0.09881247626449863</v>
+        <v>0.1611198717913709</v>
       </c>
       <c r="D13">
-        <v>0.114758440633949</v>
+        <v>0.3282215017044336</v>
       </c>
       <c r="E13">
-        <v>0.09614878304452823</v>
+        <v>0.0467148023901327</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002476278807668734</v>
+        <v>0.0008003649587477369</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.053240427299386</v>
+        <v>0.5338822168172968</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5451823378639062</v>
+        <v>1.552023507941044</v>
       </c>
       <c r="L13">
-        <v>0.2290221587283838</v>
+        <v>0.2405366444197767</v>
       </c>
       <c r="M13">
-        <v>0.2053256161975483</v>
+        <v>0.3548494463845913</v>
       </c>
       <c r="N13">
-        <v>2.061820766558917</v>
+        <v>0.8139327609768117</v>
       </c>
       <c r="O13">
-        <v>4.346307587698703</v>
+        <v>2.617048101142927</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7455744572914114</v>
+        <v>1.628577783485838</v>
       </c>
       <c r="C14">
-        <v>0.09814964524122161</v>
+        <v>0.1590491760305497</v>
       </c>
       <c r="D14">
-        <v>0.1131250245887827</v>
+        <v>0.3222018937253495</v>
       </c>
       <c r="E14">
-        <v>0.09617001926186219</v>
+        <v>0.04648876190848128</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002476730712363576</v>
+        <v>0.0008011172025506907</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.053825494898092</v>
+        <v>0.5319515446982805</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5373618792230843</v>
+        <v>1.524213327636488</v>
       </c>
       <c r="L14">
-        <v>0.2282825413411302</v>
+        <v>0.2369810187745713</v>
       </c>
       <c r="M14">
-        <v>0.2037593910753515</v>
+        <v>0.3486886263191948</v>
       </c>
       <c r="N14">
-        <v>2.065276238330192</v>
+        <v>0.8220720538690145</v>
       </c>
       <c r="O14">
-        <v>4.346254506281099</v>
+        <v>2.59845894252922</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7406959509667388</v>
+        <v>1.610507965376001</v>
       </c>
       <c r="C15">
-        <v>0.09774312270384655</v>
+        <v>0.1577817065525267</v>
       </c>
       <c r="D15">
-        <v>0.1121251925829654</v>
+        <v>0.3185213710626726</v>
       </c>
       <c r="E15">
-        <v>0.09618365486144143</v>
+        <v>0.04635154273712239</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002477009168369556</v>
+        <v>0.0008015792783268716</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.054192642724153</v>
+        <v>0.5307918398905045</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5325730924501215</v>
+        <v>1.507196050959323</v>
       </c>
       <c r="L15">
-        <v>0.22783148074096</v>
+        <v>0.2348090631190445</v>
       </c>
       <c r="M15">
-        <v>0.2028014918484899</v>
+        <v>0.3449207105524081</v>
       </c>
       <c r="N15">
-        <v>2.067405042447419</v>
+        <v>0.8270871888344615</v>
       </c>
       <c r="O15">
-        <v>4.346261554827834</v>
+        <v>2.587185810634139</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.712801155916793</v>
+        <v>1.50725951349753</v>
       </c>
       <c r="C16">
-        <v>0.09540555062770295</v>
+        <v>0.1505306953726659</v>
       </c>
       <c r="D16">
-        <v>0.1064060390960577</v>
+        <v>0.2975272437910093</v>
       </c>
       <c r="E16">
-        <v>0.09627142909530484</v>
+        <v>0.04558379795187051</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00247863024236908</v>
+        <v>0.0008042475996912083</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.056431183045184</v>
+        <v>0.5244883292269122</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5051533686607286</v>
+        <v>1.409926677605682</v>
       </c>
       <c r="L16">
-        <v>0.2252769778737473</v>
+        <v>0.2224509310788392</v>
       </c>
       <c r="M16">
-        <v>0.1973346086625369</v>
+        <v>0.3234129449015413</v>
       </c>
       <c r="N16">
-        <v>2.079791750289324</v>
+        <v>0.8562728152215975</v>
       </c>
       <c r="O16">
-        <v>4.346908476796671</v>
+        <v>2.524272886857204</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6957443627843531</v>
+        <v>1.444173316777778</v>
       </c>
       <c r="C17">
-        <v>0.09396443240514429</v>
+        <v>0.1460920566321988</v>
       </c>
       <c r="D17">
-        <v>0.1029068950215475</v>
+        <v>0.2847300734853633</v>
       </c>
       <c r="E17">
-        <v>0.09633388507682916</v>
+        <v>0.0451290288414814</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002479647390380812</v>
+        <v>0.00080590306639207</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.057924569289241</v>
+        <v>0.5209177283929307</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4883530467616026</v>
+        <v>1.350462242627401</v>
       </c>
       <c r="L17">
-        <v>0.22373700326537</v>
+        <v>0.2149453740863549</v>
       </c>
       <c r="M17">
-        <v>0.1940009824930442</v>
+        <v>0.3102902099343723</v>
       </c>
       <c r="N17">
-        <v>2.087557777903179</v>
+        <v>0.8745671832230855</v>
       </c>
       <c r="O17">
-        <v>4.347846717461607</v>
+        <v>2.487134793024438</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6859544279172667</v>
+        <v>1.407974582254013</v>
       </c>
       <c r="C18">
-        <v>0.09313293470276562</v>
+        <v>0.1435420694150054</v>
       </c>
       <c r="D18">
-        <v>0.1008977317701607</v>
+        <v>0.2773977299169132</v>
       </c>
       <c r="E18">
-        <v>0.09637297701435976</v>
+        <v>0.04487326942855319</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002480240777671303</v>
+        <v>0.0008068622059156416</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.058827682960704</v>
+        <v>0.5189694487641887</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4786977356631326</v>
+        <v>1.316329955625093</v>
       </c>
       <c r="L18">
-        <v>0.2228612424164282</v>
+        <v>0.2106549853236572</v>
       </c>
       <c r="M18">
-        <v>0.1920910048881268</v>
+        <v>0.3027671445518649</v>
       </c>
       <c r="N18">
-        <v>2.092086019447219</v>
+        <v>0.8852298398164073</v>
       </c>
       <c r="O18">
-        <v>4.348585384578513</v>
+        <v>2.466290042536968</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6826432942285408</v>
+        <v>1.395732630877404</v>
       </c>
       <c r="C19">
-        <v>0.09285095673101296</v>
+        <v>0.1426791535764238</v>
       </c>
       <c r="D19">
-        <v>0.100218057219692</v>
+        <v>0.2749198003883748</v>
       </c>
       <c r="E19">
-        <v>0.09638675761099336</v>
+        <v>0.04478765811944641</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002480443124370836</v>
+        <v>0.0008071881628900902</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.059141047314235</v>
+        <v>0.5183275805353986</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4754299652634018</v>
+        <v>1.304784827551373</v>
       </c>
       <c r="L19">
-        <v>0.2225664429879686</v>
+        <v>0.2092067895870571</v>
       </c>
       <c r="M19">
-        <v>0.1914456000722922</v>
+        <v>0.3002240799730416</v>
       </c>
       <c r="N19">
-        <v>2.093629753464182</v>
+        <v>0.8888638302455441</v>
       </c>
       <c r="O19">
-        <v>4.348869671679665</v>
+        <v>2.459319221746313</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6975579513613184</v>
+        <v>1.450879828755944</v>
       </c>
       <c r="C20">
-        <v>0.09411811151916538</v>
+        <v>0.1465642349621135</v>
       </c>
       <c r="D20">
-        <v>0.1032790278035094</v>
+        <v>0.286089388201475</v>
       </c>
       <c r="E20">
-        <v>0.09632690867389293</v>
+        <v>0.04517683501024194</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002479538249346918</v>
+        <v>0.0008057261221430273</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.057761026004606</v>
+        <v>0.5212868355155535</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4901406668672337</v>
+        <v>1.356784946073446</v>
       </c>
       <c r="L20">
-        <v>0.223899902562124</v>
+        <v>0.2157415722354159</v>
       </c>
       <c r="M20">
-        <v>0.1943550839584987</v>
+        <v>0.3116845486818889</v>
       </c>
       <c r="N20">
-        <v>2.086724713194801</v>
+        <v>0.8726051361391782</v>
       </c>
       <c r="O20">
-        <v>4.347726244144667</v>
+        <v>2.491034364636363</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7479149227976052</v>
+        <v>1.637248337548073</v>
       </c>
       <c r="C21">
-        <v>0.09834444303484702</v>
+        <v>0.1596572005720702</v>
       </c>
       <c r="D21">
-        <v>0.1136046562918409</v>
+        <v>0.3239685990886443</v>
       </c>
       <c r="E21">
-        <v>0.09616365086422718</v>
+        <v>0.04655489678437341</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002476597632940904</v>
+        <v>0.0008008959792823456</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.0536518173244</v>
+        <v>0.5325138394461746</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.539658631989937</v>
+        <v>1.532378218340142</v>
       </c>
       <c r="L21">
-        <v>0.2284993731351079</v>
+        <v>0.2380241412570996</v>
       </c>
       <c r="M21">
-        <v>0.2042191255432684</v>
+        <v>0.3504969981791675</v>
       </c>
       <c r="N21">
-        <v>2.0642587341606</v>
+        <v>0.8196751629125458</v>
       </c>
       <c r="O21">
-        <v>4.346261853146956</v>
+        <v>2.603895310061148</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7810062477439317</v>
+        <v>1.759961851088462</v>
       </c>
       <c r="C22">
-        <v>0.1010833539771596</v>
+        <v>0.1682526451894972</v>
       </c>
       <c r="D22">
-        <v>0.1203836193805614</v>
+        <v>0.34901779796688</v>
       </c>
       <c r="E22">
-        <v>0.0960850649020113</v>
+        <v>0.04751050819977465</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002474749732478539</v>
+        <v>0.0007977979941723984</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.051359093396364</v>
+        <v>0.5408662075702892</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5720876781716697</v>
+        <v>1.647894636659686</v>
       </c>
       <c r="L22">
-        <v>0.2315939103310711</v>
+        <v>0.2528508303701358</v>
       </c>
       <c r="M22">
-        <v>0.2107312465907185</v>
+        <v>0.3761170256096875</v>
       </c>
       <c r="N22">
-        <v>2.050123177682444</v>
+        <v>0.7863980315464083</v>
       </c>
       <c r="O22">
-        <v>4.347075678272944</v>
+        <v>2.682673169613622</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7633284979619077</v>
+        <v>1.694377008047923</v>
       </c>
       <c r="C23">
-        <v>0.09962367452413901</v>
+        <v>0.1636609820060784</v>
       </c>
       <c r="D23">
-        <v>0.1167627706492453</v>
+        <v>0.3356196787517263</v>
       </c>
       <c r="E23">
-        <v>0.09612444055671077</v>
+        <v>0.04699528932722252</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002475729243353413</v>
+        <v>0.0007994462271212068</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.052546830760178</v>
+        <v>0.5363116973114757</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5547737829746495</v>
+        <v>1.586165495006497</v>
       </c>
       <c r="L23">
-        <v>0.2299342204851058</v>
+        <v>0.2449120645023299</v>
       </c>
       <c r="M23">
-        <v>0.20724966054253</v>
+        <v>0.3624182344350615</v>
       </c>
       <c r="N23">
-        <v>2.057617503195782</v>
+        <v>0.8040348979243142</v>
       </c>
       <c r="O23">
-        <v>4.346479351926604</v>
+        <v>2.640147662307612</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6967379773266202</v>
+        <v>1.447847597027504</v>
       </c>
       <c r="C24">
-        <v>0.09404864247379408</v>
+        <v>0.1463507575177516</v>
       </c>
       <c r="D24">
-        <v>0.1031107786555623</v>
+        <v>0.2854747648458158</v>
       </c>
       <c r="E24">
-        <v>0.0963300527832569</v>
+        <v>0.04515520414257246</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002479587565274555</v>
+        <v>0.000805806095626059</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.057834825160491</v>
+        <v>0.521119637493868</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4893324731372957</v>
+        <v>1.353926283177088</v>
       </c>
       <c r="L24">
-        <v>0.2238262259104999</v>
+        <v>0.2153815345445906</v>
       </c>
       <c r="M24">
-        <v>0.1941949742170763</v>
+        <v>0.3110541019305728</v>
       </c>
       <c r="N24">
-        <v>2.087101144108317</v>
+        <v>0.8734917267687976</v>
       </c>
       <c r="O24">
-        <v>4.347780089428113</v>
+        <v>2.489269795434069</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6257021166316008</v>
+        <v>1.185173351055312</v>
       </c>
       <c r="C25">
-        <v>0.08793549427373648</v>
+        <v>0.1277878227342768</v>
       </c>
       <c r="D25">
-        <v>0.08851690226815379</v>
+        <v>0.2324443145690935</v>
       </c>
       <c r="E25">
-        <v>0.09667305451038466</v>
+        <v>0.04339090855566141</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002484068900982675</v>
+        <v>0.0008129339469152168</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.065227201206717</v>
+        <v>0.5087251832523876</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4190428473237375</v>
+        <v>1.106031497941814</v>
       </c>
       <c r="L25">
-        <v>0.2176200106850814</v>
+        <v>0.1845317344401352</v>
       </c>
       <c r="M25">
-        <v>0.1803980997251386</v>
+        <v>0.256580300952379</v>
       </c>
       <c r="N25">
-        <v>2.121252486917511</v>
+        <v>0.9537395184503943</v>
       </c>
       <c r="O25">
-        <v>4.356792576194209</v>
+        <v>2.346043013781582</v>
       </c>
     </row>
   </sheetData>
